--- a/sedani/estop/estop-1.2-bom.xlsx
+++ b/sedani/estop/estop-1.2-bom.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC748DD3-1F40-430B-A4AC-9C7E92CB274B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD911C-76F7-4C5F-B2AA-97EBA76107ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>296-39452-1-ND</t>
   </si>
@@ -241,10 +241,13 @@
     <t>1597-1488-ND</t>
   </si>
   <si>
-    <t>296-21527-1-ND</t>
-  </si>
-  <si>
     <t>SMD LEDs</t>
+  </si>
+  <si>
+    <t>296-12163-1-ND</t>
+  </si>
+  <si>
+    <t>USB mini header</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +276,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -315,6 +326,12 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,7 +617,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +732,7 @@
         <v>5.95</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F16" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F14" si="0">D3*E3</f>
         <v>17.850000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1179,9 +1196,10 @@
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="H15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1207,7 +1225,7 @@
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>65</v>
@@ -1251,6 +1269,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="M18" s="2">
         <f>SUM(M2:M16)</f>
         <v>69.41</v>

--- a/sedani/estop/estop-1.2-bom.xlsx
+++ b/sedani/estop/estop-1.2-bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD911C-76F7-4C5F-B2AA-97EBA76107ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE7153-C1C2-4995-8698-621CB28D6B17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>296-39452-1-ND</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>USB mini header</t>
+  </si>
+  <si>
+    <t>300mA Schottky diode</t>
+  </si>
+  <si>
+    <t>300mA fuse</t>
+  </si>
+  <si>
+    <t>NSR0530HT1GOSCT-ND</t>
   </si>
 </sst>
 </file>
@@ -614,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,24 +1287,37 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="2">
-        <f>SUM(F2:F17)</f>
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="2">
+        <f>SUM(F2:F27)</f>
         <v>42.86</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E30" s="2">
         <v>7.66</v>
       </c>
     </row>
